--- a/home/downloads/temp/New Microsoft Excel Worksheet.xlsx
+++ b/home/downloads/temp/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DLP Project\CyberShield-DLP-Security\home\downloads\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C8BA00-09EF-42DF-B8FA-1E5DAF04BF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D294D0-58E0-4DAC-BA36-3846B7315E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>User_ID</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Salary processed via HR system</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +797,7 @@
         <v>985000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2">
         <v>6011556448578940</v>
